--- a/src/main/resources/niduc.xlsx
+++ b/src/main/resources/niduc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radziu2402\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radziu2402\IdeaProjects\HybridARQ\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02BC50-DC4A-49B4-B299-85CBCFBAE050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E8BD6-8705-4457-86E1-5FA61819EAF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="12225" xr2:uid="{C55B1548-A7F1-4118-A18C-ACF7B5A90AE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>&gt;10</t>
   </si>
@@ -50,12 +50,21 @@
   <si>
     <t>Statystyka pakietow przesylanych za X razem:</t>
   </si>
+  <si>
+    <t>Prawodpodobieństwo przejścia w stan zły</t>
+  </si>
+  <si>
+    <t>% czasu w którym transmisja była w stanie dobrym</t>
+  </si>
+  <si>
+    <t>% czasu w którym transmisja była w stanie złym</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +74,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -103,18 +119,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -729,6 +830,17 @@
               <a:rPr lang="pl-PL"/>
               <a:t>Liczba przepuszczonych niepoprawnych pakietów w zależności od kodu detekcyjnego</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>dla testów w kanale BSC</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -742,8 +854,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1528356057528967"/>
-          <c:y val="9.2378752886836026E-3"/>
+          <c:x val="0.15283562218598012"/>
+          <c:y val="9.2379201498491107E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -848,13 +960,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,13 +978,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4107</c:v>
+                  <c:v>1706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20439</c:v>
+                  <c:v>2751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40963</c:v>
+                  <c:v>3441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,13 +1053,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,13 +1071,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1257</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,13 +1146,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,10 +1167,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,13 +1239,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,10 +1260,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,6 +1290,8 @@
         <c:axId val="215184720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0000000000000012E-4"/>
+          <c:min val="1.0000000000000003E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2818,7 +2932,7 @@
               <c:f>Arkusz1!$K$226:$K$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1603</c:v>
                 </c:pt>
@@ -2829,27 +2943,24 @@
                   <c:v>15264</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12288</c:v>
+                  <c:v>9655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9655</c:v>
+                  <c:v>7944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7944</c:v>
+                  <c:v>6248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6248</c:v>
+                  <c:v>5046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5046</c:v>
+                  <c:v>4077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4077</c:v>
+                  <c:v>3283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3283</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>12970</c:v>
                 </c:pt>
               </c:numCache>
@@ -10472,6 +10583,1424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$497:$C$507</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3EA-46FE-9D3D-6FC33FC4CCFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Ilość pakietów</c:v>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$G$16:$G$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>&gt;10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$C$497:$C$507</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1134</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>944</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>748</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>603</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>479</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>368</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>232</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1110</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F3EA-46FE-9D3D-6FC33FC4CCFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$497:$F$507</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3228-44F5-83EB-BEDEF8D52847}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$511:$C$521</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E8C-4C46-BCBF-4035AE3D5F0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$527:$C$537</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBEF-4047-A687-A8B8A42AA6B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -10980,6 +12509,672 @@
           </a:p>
         </c:txPr>
       </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$543:$C$553</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C34-4108-939D-E9A317BE76CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ilość pakietów</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$557:$C$567</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CBB-48D7-A4D3-C01EE2CAF13F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1910635840"/>
+        <c:axId val="2109660816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1910635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109660816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109660816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910635840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -15112,6 +17307,30 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15149,6 +17368,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
@@ -24306,7 +26531,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24800,7 +27025,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25294,7 +27519,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25788,7 +28013,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26282,7 +28507,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26776,7 +29001,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27270,7 +29495,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27764,20 +29989,2490 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385481</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323290</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31936</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28712,6 +33407,234 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>840441</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202268</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>114860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Wykres 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6DF893-3810-48B4-9BDE-F7A920779BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1008530</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Wykres 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1C3BB6-638F-4269-9268-31311E37F659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>896470</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>148478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Wykres 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421267AF-5833-4970-A115-799D6E1535E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885265</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>182096</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Wykres 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827B35A-6F4E-4639-9FE3-7D4C81CE6AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1748119</xdr:colOff>
+      <xdr:row>553</xdr:row>
+      <xdr:rowOff>103655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Wykres 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC47A1C-B617-475A-B736-86444A743AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1703295</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>14008</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Wykres 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C29042-2E66-4D12-87DD-6A0FFBE0B6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29012,16 +33935,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8463B5-065C-4B4F-85C0-38929505FA47}">
-  <dimension ref="B16:N522"/>
+  <dimension ref="B16:N567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T518" sqref="T518"/>
+    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C557" sqref="C557:C567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="16" spans="7:8" x14ac:dyDescent="0.25">
@@ -29832,7 +34759,7 @@
         <v>32027</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L179">
         <v>3</v>
       </c>
@@ -29840,21 +34767,21 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
-      <c r="C180" s="3" t="s">
+    <row r="180" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="3"/>
+      <c r="C180" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L180">
@@ -29864,20 +34791,20 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="C181" s="2">
-        <v>4107</v>
-      </c>
-      <c r="D181" s="2">
-        <v>4</v>
-      </c>
-      <c r="E181" s="1">
+    <row r="181" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C181" s="6">
+        <v>1706</v>
+      </c>
+      <c r="D181" s="6">
+        <v>6</v>
+      </c>
+      <c r="E181" s="7">
         <v>0</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="7">
         <v>0</v>
       </c>
       <c r="G181" s="1"/>
@@ -29888,21 +34815,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C182" s="2">
-        <v>20439</v>
-      </c>
-      <c r="D182" s="2">
-        <v>294</v>
-      </c>
-      <c r="E182" s="1">
-        <v>9</v>
-      </c>
-      <c r="F182" s="1">
-        <v>7</v>
+    <row r="182" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C182" s="6">
+        <v>2751</v>
+      </c>
+      <c r="D182" s="6">
+        <v>20</v>
+      </c>
+      <c r="E182" s="7">
+        <v>2</v>
+      </c>
+      <c r="F182" s="7">
+        <v>1</v>
       </c>
       <c r="G182" s="1"/>
       <c r="L182">
@@ -29912,21 +34839,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C183" s="2">
-        <v>40963</v>
-      </c>
-      <c r="D183" s="2">
-        <v>1257</v>
-      </c>
-      <c r="E183" s="1">
-        <v>87</v>
-      </c>
-      <c r="F183" s="1">
-        <v>80</v>
+    <row r="183" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C183" s="6">
+        <v>3441</v>
+      </c>
+      <c r="D183" s="6">
+        <v>51</v>
+      </c>
+      <c r="E183" s="7">
+        <v>12</v>
+      </c>
+      <c r="F183" s="7">
+        <v>17</v>
       </c>
       <c r="G183" s="1"/>
       <c r="L183">
@@ -30072,7 +34999,7 @@
         <v>23246</v>
       </c>
     </row>
-    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J228">
         <v>3</v>
       </c>
@@ -30080,7 +35007,7 @@
         <v>15264</v>
       </c>
     </row>
-    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J229">
         <v>4</v>
       </c>
@@ -30088,7 +35015,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="230" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J230">
         <v>5</v>
       </c>
@@ -30096,7 +35023,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="231" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J231">
         <v>6</v>
       </c>
@@ -30144,7 +35071,102 @@
         <v>12970</v>
       </c>
     </row>
-    <row r="253" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B246" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G246" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B247" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C247" s="12">
+        <v>2332</v>
+      </c>
+      <c r="D247" s="12">
+        <v>6</v>
+      </c>
+      <c r="E247" s="13">
+        <v>0</v>
+      </c>
+      <c r="F247" s="13">
+        <v>0</v>
+      </c>
+      <c r="G247" s="14">
+        <v>90.94</v>
+      </c>
+      <c r="H247" s="14">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B248" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="C248" s="12">
+        <v>2879</v>
+      </c>
+      <c r="D248" s="12">
+        <v>17</v>
+      </c>
+      <c r="E248" s="13">
+        <v>1</v>
+      </c>
+      <c r="F248" s="13">
+        <v>0</v>
+      </c>
+      <c r="G248" s="14">
+        <v>76.88</v>
+      </c>
+      <c r="H248" s="14">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B249" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="C249" s="12">
+        <v>3142</v>
+      </c>
+      <c r="D249" s="12">
+        <v>28</v>
+      </c>
+      <c r="E249" s="13">
+        <v>4</v>
+      </c>
+      <c r="F249" s="13">
+        <v>2</v>
+      </c>
+      <c r="G249" s="14">
+        <v>66.62</v>
+      </c>
+      <c r="H249" s="14">
+        <v>33.380000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H251" s="15"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J253">
         <v>1</v>
       </c>
@@ -30152,7 +35174,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="254" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J254">
         <v>2</v>
       </c>
@@ -30160,7 +35182,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="255" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J255">
         <v>3</v>
       </c>
@@ -30168,7 +35190,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="256" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J256">
         <v>4</v>
       </c>
@@ -30838,78 +35860,361 @@
         <v>263</v>
       </c>
     </row>
-    <row r="497" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <v>34</v>
+      </c>
+      <c r="F497">
+        <v>3010</v>
+      </c>
       <c r="K497">
         <v>192</v>
       </c>
     </row>
-    <row r="498" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <v>1134</v>
+      </c>
+      <c r="F498">
+        <v>610</v>
+      </c>
       <c r="K498">
         <v>146</v>
       </c>
     </row>
-    <row r="499" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C499">
+        <v>944</v>
+      </c>
+      <c r="F499">
+        <v>506</v>
+      </c>
       <c r="K499">
         <v>392</v>
       </c>
     </row>
-    <row r="512" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <v>748</v>
+      </c>
+      <c r="F500">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="501" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C501">
+        <v>603</v>
+      </c>
+      <c r="F501">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="502" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C502">
+        <v>479</v>
+      </c>
+      <c r="F502">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="503" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C503">
+        <v>401</v>
+      </c>
+      <c r="F503">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="504" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C504">
+        <v>368</v>
+      </c>
+      <c r="F504">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="505" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C505">
+        <v>299</v>
+      </c>
+      <c r="F505">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="506" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C506">
+        <v>232</v>
+      </c>
+      <c r="F506">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="507" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C507">
+        <v>1110</v>
+      </c>
+      <c r="F507">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="511" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C511">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="512" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C512">
+        <v>2187</v>
+      </c>
       <c r="K512">
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C513">
+        <v>584</v>
+      </c>
       <c r="K513">
         <v>209</v>
       </c>
     </row>
-    <row r="514" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C514">
+        <v>214</v>
+      </c>
       <c r="K514">
         <v>218</v>
       </c>
     </row>
-    <row r="515" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C515">
+        <v>77</v>
+      </c>
       <c r="K515">
         <v>192</v>
       </c>
     </row>
-    <row r="516" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C516">
+        <v>31</v>
+      </c>
       <c r="K516">
         <v>201</v>
       </c>
     </row>
-    <row r="517" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C517">
+        <v>15</v>
+      </c>
       <c r="K517">
         <v>187</v>
       </c>
     </row>
-    <row r="518" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C518">
+        <v>7</v>
+      </c>
       <c r="K518">
         <v>198</v>
       </c>
     </row>
-    <row r="519" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C519">
+        <v>3</v>
+      </c>
       <c r="K519">
         <v>178</v>
       </c>
     </row>
-    <row r="520" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C520">
+        <v>0</v>
+      </c>
       <c r="K520">
         <v>201</v>
       </c>
     </row>
-    <row r="521" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C521">
+        <v>2</v>
+      </c>
       <c r="K521">
         <v>154</v>
       </c>
     </row>
-    <row r="522" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K522">
         <v>4613</v>
+      </c>
+    </row>
+    <row r="527" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C527">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="528" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C528">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>